--- a/Методы и средства криптографической защиты/Практики/Лаба 4/Таблица биграм.xlsx
+++ b/Методы и средства криптографической защиты/Практики/Лаба 4/Таблица биграм.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Методы и средства криптографической защиты\Практики\Лаба 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E0A55-0E41-47D2-BC54-81185E0DA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF11802-D2C9-4A87-ABDE-9ACAA3B002BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{61643D3A-8A87-4BC1-BADD-CEC8A98F7AAC}"/>
   </bookViews>
@@ -1267,8 +1267,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:DY131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="24" zoomScaleNormal="24" workbookViewId="0">
-      <selection activeCell="AM40" sqref="AM40"/>
+    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="24" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
